--- a/2-Empirical-Evidence/raw_data/North_Dakota.xlsx
+++ b/2-Empirical-Evidence/raw_data/North_Dakota.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN380010000000003</t>
@@ -1174,10 +1190,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>1.3</v>
@@ -1272,10 +1300,20 @@
       <c r="AF5" t="n" s="10">
         <v>3.6</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>24.0</v>
@@ -1370,10 +1408,20 @@
       <c r="AF6" t="n" s="8">
         <v>36.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>1756.0</v>
@@ -1468,10 +1516,20 @@
       <c r="AF7" t="n" s="8">
         <v>969.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>945.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>931.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>935.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>1780.0</v>
@@ -1566,10 +1624,20 @@
       <c r="AF8" t="n" s="8">
         <v>1005.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>973.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>950.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>952.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>3.2</v>
@@ -1664,10 +1732,20 @@
       <c r="AF9" t="n" s="10">
         <v>3.7</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>195.0</v>
@@ -1762,10 +1840,20 @@
       <c r="AF10" t="n" s="8">
         <v>193.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>5875.0</v>
@@ -1860,10 +1948,20 @@
       <c r="AF11" t="n" s="8">
         <v>4991.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>5056.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>5162.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>5090.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>6070.0</v>
@@ -1958,10 +2056,20 @@
       <c r="AF12" t="n" s="8">
         <v>5184.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>5191.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>5273.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>5200.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>8.0</v>
@@ -2056,10 +2164,20 @@
       <c r="AF13" t="n" s="10">
         <v>6.6</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>232.0</v>
@@ -2154,10 +2272,20 @@
       <c r="AF14" t="n" s="8">
         <v>152.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>2666.0</v>
@@ -2252,10 +2380,20 @@
       <c r="AF15" t="n" s="8">
         <v>2155.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>2205.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>2260.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>2243.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>2898.0</v>
@@ -2350,10 +2488,20 @@
       <c r="AF16" t="n" s="8">
         <v>2307.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>2299.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>2325.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>2305.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>4.3</v>
@@ -2448,10 +2596,20 @@
       <c r="AF17" t="n" s="10">
         <v>3.7</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>24.0</v>
@@ -2546,10 +2704,20 @@
       <c r="AF18" t="n" s="8">
         <v>16.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>528.0</v>
@@ -2644,10 +2812,20 @@
       <c r="AF19" t="n" s="8">
         <v>421.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>444.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>448.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>457.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>552.0</v>
@@ -2742,10 +2920,20 @@
       <c r="AF20" t="n" s="8">
         <v>437.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>455.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>456.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>465.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>4.2</v>
@@ -2840,10 +3028,20 @@
       <c r="AF21" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>155.0</v>
@@ -2938,10 +3136,20 @@
       <c r="AF22" t="n" s="8">
         <v>153.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>3576.0</v>
@@ -3036,10 +3244,20 @@
       <c r="AF23" t="n" s="8">
         <v>2814.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>2870.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>2909.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>2936.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>3731.0</v>
@@ -3134,10 +3352,20 @@
       <c r="AF24" t="n" s="8">
         <v>2967.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>2986.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>2995.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>3007.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>1.6</v>
@@ -3232,10 +3460,20 @@
       <c r="AF25" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>32.0</v>
@@ -3330,10 +3568,20 @@
       <c r="AF26" t="n" s="8">
         <v>53.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>1931.0</v>
@@ -3428,10 +3676,20 @@
       <c r="AF27" t="n" s="8">
         <v>1574.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>1564.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>1531.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>1532.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>1963.0</v>
@@ -3526,10 +3784,20 @@
       <c r="AF28" t="n" s="8">
         <v>1627.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>1597.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>1556.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>1552.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>2.5</v>
@@ -3624,10 +3892,20 @@
       <c r="AF29" t="n" s="10">
         <v>5.1</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>31.0</v>
@@ -3722,10 +4000,20 @@
       <c r="AF30" t="n" s="8">
         <v>53.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>1218.0</v>
@@ -3820,10 +4108,20 @@
       <c r="AF31" t="n" s="8">
         <v>981.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>1015.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>1028.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>1051.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>1249.0</v>
@@ -3918,10 +4216,20 @@
       <c r="AF32" t="n" s="8">
         <v>1034.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>1052.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>1048.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>1068.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>3.8</v>
@@ -4016,10 +4324,20 @@
       <c r="AF33" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1270.0</v>
@@ -4114,10 +4432,20 @@
       <c r="AF34" t="n" s="8">
         <v>2128.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1341.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>969.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>909.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>31770.0</v>
@@ -4212,10 +4540,20 @@
       <c r="AF35" t="n" s="8">
         <v>48896.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>50551.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>51178.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>51034.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>33040.0</v>
@@ -4310,10 +4648,20 @@
       <c r="AF36" t="n" s="8">
         <v>51024.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>51892.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>52147.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>51943.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>3.1</v>
@@ -4408,10 +4756,20 @@
       <c r="AF37" t="n" s="10">
         <v>4.2</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>1870.0</v>
@@ -4506,10 +4864,20 @@
       <c r="AF38" t="n" s="8">
         <v>4459.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>2583.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>1862.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>1876.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>57974.0</v>
@@ -4604,10 +4972,20 @@
       <c r="AF39" t="n" s="8">
         <v>101236.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>105167.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>108126.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>109423.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>59844.0</v>
@@ -4702,10 +5080,20 @@
       <c r="AF40" t="n" s="8">
         <v>105695.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>107750.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>109988.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>111299.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>4.1</v>
@@ -4800,10 +5188,20 @@
       <c r="AF41" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>112.0</v>
@@ -4898,10 +5296,20 @@
       <c r="AF42" t="n" s="8">
         <v>63.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>2598.0</v>
@@ -4996,10 +5404,20 @@
       <c r="AF43" t="n" s="8">
         <v>1842.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>1835.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>1799.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>1796.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>2710.0</v>
@@ -5094,10 +5512,20 @@
       <c r="AF44" t="n" s="8">
         <v>1905.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>1882.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>1842.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>1837.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>2.5</v>
@@ -5192,10 +5620,20 @@
       <c r="AF45" t="n" s="10">
         <v>3.2</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>77.0</v>
@@ -5290,10 +5728,20 @@
       <c r="AF46" t="n" s="8">
         <v>73.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>2990.0</v>
@@ -5388,10 +5836,20 @@
       <c r="AF47" t="n" s="8">
         <v>2231.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>2227.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>2199.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>2220.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>3067.0</v>
@@ -5486,10 +5944,20 @@
       <c r="AF48" t="n" s="8">
         <v>2304.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>2278.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>2236.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>2258.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>1.7</v>
@@ -5584,10 +6052,20 @@
       <c r="AF49" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>20.0</v>
@@ -5682,10 +6160,20 @@
       <c r="AF50" t="n" s="8">
         <v>44.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>1159.0</v>
@@ -5780,10 +6268,20 @@
       <c r="AF51" t="n" s="8">
         <v>1393.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>1416.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>1412.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>1528.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>1179.0</v>
@@ -5878,10 +6376,20 @@
       <c r="AF52" t="n" s="8">
         <v>1437.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>1445.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>1430.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>1546.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>2.2</v>
@@ -5976,10 +6484,20 @@
       <c r="AF53" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>1.1</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>57.0</v>
@@ -6074,10 +6592,20 @@
       <c r="AF54" t="n" s="8">
         <v>139.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>2493.0</v>
@@ -6172,10 +6700,20 @@
       <c r="AF55" t="n" s="8">
         <v>3004.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>2990.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>3146.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>3127.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>2550.0</v>
@@ -6270,10 +6808,20 @@
       <c r="AF56" t="n" s="8">
         <v>3143.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>3074.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>3188.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>3163.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>6.5</v>
@@ -6368,10 +6916,20 @@
       <c r="AF57" t="n" s="10">
         <v>4.5</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>94.0</v>
@@ -6466,10 +7024,20 @@
       <c r="AF58" t="n" s="8">
         <v>54.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>1347.0</v>
@@ -6564,10 +7132,20 @@
       <c r="AF59" t="n" s="8">
         <v>1146.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>1157.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>1160.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>1147.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>1441.0</v>
@@ -6662,10 +7240,20 @@
       <c r="AF60" t="n" s="8">
         <v>1200.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>1196.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>1193.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>1178.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>3.3</v>
@@ -6760,10 +7348,20 @@
       <c r="AF61" t="n" s="10">
         <v>4.6</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>70.0</v>
@@ -6858,10 +7456,20 @@
       <c r="AF62" t="n" s="8">
         <v>69.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>2055.0</v>
@@ -6956,10 +7564,20 @@
       <c r="AF63" t="n" s="8">
         <v>1416.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>1420.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>1391.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>1411.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>2125.0</v>
@@ -7054,10 +7672,20 @@
       <c r="AF64" t="n" s="8">
         <v>1485.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>1476.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>1450.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>1472.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>3.6</v>
@@ -7152,10 +7780,20 @@
       <c r="AF65" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>69.0</v>
@@ -7250,10 +7888,20 @@
       <c r="AF66" t="n" s="8">
         <v>52.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>1862.0</v>
@@ -7348,10 +7996,20 @@
       <c r="AF67" t="n" s="8">
         <v>1502.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>1482.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>1493.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>1491.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>1931.0</v>
@@ -7446,10 +8104,20 @@
       <c r="AF68" t="n" s="8">
         <v>1554.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>1517.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>1524.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>1519.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>2.4</v>
@@ -7544,10 +8212,20 @@
       <c r="AF69" t="n" s="10">
         <v>3.0</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>22.0</v>
@@ -7642,10 +8320,20 @@
       <c r="AF70" t="n" s="8">
         <v>26.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>903.0</v>
@@ -7740,10 +8428,20 @@
       <c r="AF71" t="n" s="8">
         <v>834.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>831.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>835.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>925.0</v>
@@ -7838,10 +8536,20 @@
       <c r="AF72" t="n" s="8">
         <v>860.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>850.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>849.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>864.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>4.6</v>
@@ -7936,10 +8644,20 @@
       <c r="AF73" t="n" s="10">
         <v>4.4</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>1505.0</v>
@@ -8034,10 +8752,20 @@
       <c r="AF74" t="n" s="8">
         <v>1645.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>988.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>681.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>652.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>31563.0</v>
@@ -8132,10 +8860,20 @@
       <c r="AF75" t="n" s="8">
         <v>35452.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>36171.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>36911.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>37310.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>33068.0</v>
@@ -8230,10 +8968,20 @@
       <c r="AF76" t="n" s="8">
         <v>37097.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>37159.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>37592.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>37962.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>1.5</v>
@@ -8328,10 +9076,20 @@
       <c r="AF77" t="n" s="10">
         <v>2.6</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>32.0</v>
@@ -8426,10 +9184,20 @@
       <c r="AF78" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>2153.0</v>
@@ -8524,10 +9292,20 @@
       <c r="AF79" t="n" s="8">
         <v>1165.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>1213.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>1194.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>1217.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>2185.0</v>
@@ -8622,10 +9400,20 @@
       <c r="AF80" t="n" s="8">
         <v>1196.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>1240.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>1217.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>1237.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>2.2</v>
@@ -8720,10 +9508,20 @@
       <c r="AF81" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>34.0</v>
@@ -8818,10 +9616,20 @@
       <c r="AF82" t="n" s="8">
         <v>29.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>1525.0</v>
@@ -8916,10 +9724,20 @@
       <c r="AF83" t="n" s="8">
         <v>992.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>1007.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>993.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>1007.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>1559.0</v>
@@ -9014,10 +9832,20 @@
       <c r="AF84" t="n" s="8">
         <v>1021.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>1031.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>1013.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>1027.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>3.0</v>
@@ -9112,10 +9940,20 @@
       <c r="AF85" t="n" s="10">
         <v>3.8</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>47.0</v>
@@ -9210,10 +10048,20 @@
       <c r="AF86" t="n" s="8">
         <v>53.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>1515.0</v>
@@ -9308,10 +10156,20 @@
       <c r="AF87" t="n" s="8">
         <v>1336.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>1355.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>1366.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>1328.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>1562.0</v>
@@ -9406,10 +10264,20 @@
       <c r="AF88" t="n" s="8">
         <v>1389.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>1392.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>1389.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>1350.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>5.5</v>
@@ -9504,10 +10372,20 @@
       <c r="AF89" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>88.0</v>
@@ -9602,10 +10480,20 @@
       <c r="AF90" t="n" s="8">
         <v>63.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>1518.0</v>
@@ -9700,10 +10588,20 @@
       <c r="AF91" t="n" s="8">
         <v>1230.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>1266.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>1267.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>1291.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>1606.0</v>
@@ -9798,10 +10696,20 @@
       <c r="AF92" t="n" s="8">
         <v>1293.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>1322.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>1317.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>1333.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>2.3</v>
@@ -9896,10 +10804,20 @@
       <c r="AF93" t="n" s="10">
         <v>2.5</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>56.0</v>
@@ -9994,10 +10912,20 @@
       <c r="AF94" t="n" s="8">
         <v>52.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>2371.0</v>
@@ -10092,10 +11020,20 @@
       <c r="AF95" t="n" s="8">
         <v>2008.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>2019.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>2061.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>2066.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>2427.0</v>
@@ -10190,10 +11128,20 @@
       <c r="AF96" t="n" s="8">
         <v>2060.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>2057.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>2098.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>2104.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>2.2</v>
@@ -10288,10 +11236,20 @@
       <c r="AF97" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>27.0</v>
@@ -10386,10 +11344,20 @@
       <c r="AF98" t="n" s="8">
         <v>27.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>1205.0</v>
@@ -10484,10 +11452,20 @@
       <c r="AF99" t="n" s="8">
         <v>833.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>849.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>848.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>837.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>1232.0</v>
@@ -10582,10 +11560,20 @@
       <c r="AF100" t="n" s="8">
         <v>860.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>871.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>866.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>857.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>5.8</v>
@@ -10680,10 +11668,20 @@
       <c r="AF101" t="n" s="10">
         <v>5.2</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>162.0</v>
@@ -10778,10 +11776,20 @@
       <c r="AF102" t="n" s="8">
         <v>162.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>2612.0</v>
@@ -10876,10 +11884,20 @@
       <c r="AF103" t="n" s="8">
         <v>2941.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>3033.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>3016.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>3050.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>2774.0</v>
@@ -10974,10 +11992,20 @@
       <c r="AF104" t="n" s="8">
         <v>3103.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>3145.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>3113.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>3138.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>1.3</v>
@@ -11072,10 +12100,20 @@
       <c r="AF105" t="n" s="10">
         <v>3.1</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>24.0</v>
@@ -11170,10 +12208,20 @@
       <c r="AF106" t="n" s="8">
         <v>34.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>1757.0</v>
@@ -11268,10 +12316,20 @@
       <c r="AF107" t="n" s="8">
         <v>1062.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>1065.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>1040.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>1053.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>1781.0</v>
@@ -11366,10 +12424,20 @@
       <c r="AF108" t="n" s="8">
         <v>1096.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>1096.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>1062.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>1073.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>2.3</v>
@@ -11464,10 +12532,20 @@
       <c r="AF109" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>67.0</v>
@@ -11562,10 +12640,20 @@
       <c r="AF110" t="n" s="8">
         <v>693.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>380.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>167.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>2867.0</v>
@@ -11660,10 +12748,20 @@
       <c r="AF111" t="n" s="8">
         <v>8775.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>8252.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>8932.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>9679.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>2934.0</v>
@@ -11758,10 +12856,20 @@
       <c r="AF112" t="n" s="8">
         <v>9468.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>8632.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>9099.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>9803.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>4.7</v>
@@ -11856,10 +12964,20 @@
       <c r="AF113" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>215.0</v>
@@ -11954,10 +13072,20 @@
       <c r="AF114" t="n" s="8">
         <v>208.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>144.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>4390.0</v>
@@ -12052,10 +13180,20 @@
       <c r="AF115" t="n" s="8">
         <v>4613.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>4578.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>4616.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>4638.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>4605.0</v>
@@ -12150,10 +13288,20 @@
       <c r="AF116" t="n" s="8">
         <v>4821.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>4722.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>4757.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>4753.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>6.2</v>
@@ -12248,10 +13396,20 @@
       <c r="AF117" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>299.0</v>
@@ -12346,10 +13504,20 @@
       <c r="AF118" t="n" s="8">
         <v>200.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>141.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>4553.0</v>
@@ -12444,10 +13612,20 @@
       <c r="AF119" t="n" s="8">
         <v>3429.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>3547.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>3519.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>3567.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>4852.0</v>
@@ -12542,10 +13720,20 @@
       <c r="AF120" t="n" s="8">
         <v>3629.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>3688.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>3632.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>3661.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>4.9</v>
@@ -12640,10 +13828,20 @@
       <c r="AF121" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>588.0</v>
@@ -12738,10 +13936,20 @@
       <c r="AF122" t="n" s="8">
         <v>819.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>541.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>406.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>398.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>11509.0</v>
@@ -12836,10 +14044,20 @@
       <c r="AF123" t="n" s="8">
         <v>16049.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>16565.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>16750.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>16728.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>12097.0</v>
@@ -12934,10 +14152,20 @@
       <c r="AF124" t="n" s="8">
         <v>16868.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>17106.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>17156.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>17126.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>5.4</v>
@@ -13032,10 +14260,20 @@
       <c r="AF125" t="n" s="10">
         <v>5.0</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>165.0</v>
@@ -13130,10 +14368,20 @@
       <c r="AF126" t="n" s="8">
         <v>345.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>187.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>2880.0</v>
@@ -13228,10 +14476,20 @@
       <c r="AF127" t="n" s="8">
         <v>6552.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>6293.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>6344.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>6515.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>3045.0</v>
@@ -13326,10 +14584,20 @@
       <c r="AF128" t="n" s="8">
         <v>6897.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>6480.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>6438.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>6596.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>3.8</v>
@@ -13424,10 +14692,20 @@
       <c r="AF129" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>66.0</v>
@@ -13522,10 +14800,20 @@
       <c r="AF130" t="n" s="8">
         <v>60.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>1668.0</v>
@@ -13620,10 +14908,20 @@
       <c r="AF131" t="n" s="8">
         <v>1335.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>1367.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>1416.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>1412.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>1734.0</v>
@@ -13718,10 +15016,20 @@
       <c r="AF132" t="n" s="8">
         <v>1395.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>1410.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>1457.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>1448.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>3.9</v>
@@ -13816,10 +15124,20 @@
       <c r="AF133" t="n" s="10">
         <v>4.9</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>47.0</v>
@@ -13914,10 +15232,20 @@
       <c r="AF134" t="n" s="8">
         <v>43.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>1159.0</v>
@@ -14012,10 +15340,20 @@
       <c r="AF135" t="n" s="8">
         <v>827.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>849.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>856.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>856.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>1206.0</v>
@@ -14110,10 +15448,20 @@
       <c r="AF136" t="n" s="8">
         <v>870.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>877.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>884.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>883.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>8.7</v>
@@ -14208,10 +15556,20 @@
       <c r="AF137" t="n" s="10">
         <v>5.5</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>406.0</v>
@@ -14306,10 +15664,20 @@
       <c r="AF138" t="n" s="8">
         <v>185.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>132.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>4255.0</v>
@@ -14404,10 +15772,20 @@
       <c r="AF139" t="n" s="8">
         <v>3202.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>3191.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>3132.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>3147.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>4661.0</v>
@@ -14502,10 +15880,20 @@
       <c r="AF140" t="n" s="8">
         <v>3387.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>3323.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>3237.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>3238.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>2.9</v>
@@ -14600,10 +15988,20 @@
       <c r="AF141" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>61.0</v>
@@ -14698,10 +16096,20 @@
       <c r="AF142" t="n" s="8">
         <v>70.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>2077.0</v>
@@ -14796,10 +16204,20 @@
       <c r="AF143" t="n" s="8">
         <v>1636.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>1637.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>1651.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>1659.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>2138.0</v>
@@ -14894,10 +16312,20 @@
       <c r="AF144" t="n" s="8">
         <v>1706.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>1684.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>1692.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>1702.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>3.7</v>
@@ -14992,10 +16420,20 @@
       <c r="AF145" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>231.0</v>
@@ -15090,10 +16528,20 @@
       <c r="AF146" t="n" s="8">
         <v>246.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>155.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>5983.0</v>
@@ -15188,10 +16636,20 @@
       <c r="AF147" t="n" s="8">
         <v>5478.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>5605.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>5557.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>5539.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>6214.0</v>
@@ -15286,10 +16744,20 @@
       <c r="AF148" t="n" s="8">
         <v>5724.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>5760.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>5679.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>5655.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>1.8</v>
@@ -15384,10 +16852,20 @@
       <c r="AF149" t="n" s="10">
         <v>4.0</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>48.0</v>
@@ -15482,10 +16960,20 @@
       <c r="AF150" t="n" s="8">
         <v>114.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>2651.0</v>
@@ -15580,10 +17068,20 @@
       <c r="AF151" t="n" s="8">
         <v>2771.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>2656.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>2617.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>2580.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>2699.0</v>
@@ -15678,10 +17176,20 @@
       <c r="AF152" t="n" s="8">
         <v>2885.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>2714.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>2661.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>2620.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>2.4</v>
@@ -15776,10 +17284,20 @@
       <c r="AF153" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>33.0</v>
@@ -15874,10 +17392,20 @@
       <c r="AF154" t="n" s="8">
         <v>58.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>1350.0</v>
@@ -15972,10 +17500,20 @@
       <c r="AF155" t="n" s="8">
         <v>1169.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>1192.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>1211.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>1383.0</v>
@@ -16070,10 +17608,20 @@
       <c r="AF156" t="n" s="8">
         <v>1227.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>1210.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>1215.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>1232.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>4.6</v>
@@ -16168,10 +17716,20 @@
       <c r="AF157" t="n" s="10">
         <v>3.7</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>2.3</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>391.0</v>
@@ -16266,10 +17824,20 @@
       <c r="AF158" t="n" s="8">
         <v>321.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>199.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>161.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>150.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>8188.0</v>
@@ -16364,10 +17932,20 @@
       <c r="AF159" t="n" s="8">
         <v>8292.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>8514.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>8649.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>8743.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>8579.0</v>
@@ -16462,10 +18040,20 @@
       <c r="AF160" t="n" s="8">
         <v>8613.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>8713.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>8810.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>8893.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>14.5</v>
@@ -16560,10 +18148,20 @@
       <c r="AF161" t="n" s="10">
         <v>13.0</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>8.6</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>704.0</v>
@@ -16658,10 +18256,20 @@
       <c r="AF162" t="n" s="8">
         <v>619.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>405.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>303.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>4163.0</v>
@@ -16756,10 +18364,20 @@
       <c r="AF163" t="n" s="8">
         <v>4137.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>4315.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>4432.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>4473.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>4867.0</v>
@@ -16854,10 +18472,20 @@
       <c r="AF164" t="n" s="8">
         <v>4756.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>4720.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>4735.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>4734.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>1.7</v>
@@ -16952,10 +18580,20 @@
       <c r="AF165" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>36.0</v>
@@ -17050,10 +18688,20 @@
       <c r="AF166" t="n" s="8">
         <v>116.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>2035.0</v>
@@ -17148,10 +18796,20 @@
       <c r="AF167" t="n" s="8">
         <v>2684.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>2335.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>2262.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>2212.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>2071.0</v>
@@ -17246,10 +18904,20 @@
       <c r="AF168" t="n" s="8">
         <v>2800.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>2388.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>2300.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>2246.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>2.7</v>
@@ -17344,10 +19012,20 @@
       <c r="AF169" t="n" s="10">
         <v>5.6</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>21.0</v>
@@ -17442,10 +19120,20 @@
       <c r="AF170" t="n" s="8">
         <v>38.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>757.0</v>
@@ -17540,10 +19228,20 @@
       <c r="AF171" t="n" s="8">
         <v>641.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>636.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>637.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>633.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>778.0</v>
@@ -17638,10 +19336,20 @@
       <c r="AF172" t="n" s="8">
         <v>679.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>664.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>654.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>650.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>14.9</v>
@@ -17736,10 +19444,20 @@
       <c r="AF173" t="n" s="10">
         <v>3.9</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>271.0</v>
@@ -17834,10 +19552,20 @@
       <c r="AF174" t="n" s="8">
         <v>46.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>1542.0</v>
@@ -17932,10 +19660,20 @@
       <c r="AF175" t="n" s="8">
         <v>1148.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>1181.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>1195.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>1192.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>1813.0</v>
@@ -18030,10 +19768,20 @@
       <c r="AF176" t="n" s="8">
         <v>1194.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>1218.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>1225.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>1221.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>2.4</v>
@@ -18128,10 +19876,20 @@
       <c r="AF177" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>14.0</v>
@@ -18226,10 +19984,20 @@
       <c r="AF178" t="n" s="8">
         <v>11.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>571.0</v>
@@ -18324,10 +20092,20 @@
       <c r="AF179" t="n" s="8">
         <v>381.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>351.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>331.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>585.0</v>
@@ -18422,10 +20200,20 @@
       <c r="AF180" t="n" s="8">
         <v>392.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>359.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>339.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>339.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>3.8</v>
@@ -18520,10 +20308,20 @@
       <c r="AF181" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>456.0</v>
@@ -18618,10 +20416,20 @@
       <c r="AF182" t="n" s="8">
         <v>1281.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>668.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>328.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>286.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>11661.0</v>
@@ -18716,10 +20524,20 @@
       <c r="AF183" t="n" s="8">
         <v>17063.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>16871.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>17686.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>18342.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>12117.0</v>
@@ -18814,10 +20632,20 @@
       <c r="AF184" t="n" s="8">
         <v>18344.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>17539.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>18014.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>18628.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>1.7</v>
@@ -18912,10 +20740,20 @@
       <c r="AF185" t="n" s="10">
         <v>2.8</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>21.0</v>
@@ -19010,10 +20848,20 @@
       <c r="AF186" t="n" s="8">
         <v>27.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>1237.0</v>
@@ -19108,10 +20956,20 @@
       <c r="AF187" t="n" s="8">
         <v>931.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>916.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>928.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>928.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>1258.0</v>
@@ -19206,10 +21064,20 @@
       <c r="AF188" t="n" s="8">
         <v>958.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>939.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>946.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>947.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>3.5</v>
@@ -19304,10 +21172,20 @@
       <c r="AF189" t="n" s="10">
         <v>3.3</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>393.0</v>
@@ -19402,10 +21280,20 @@
       <c r="AF190" t="n" s="8">
         <v>351.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>209.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>196.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>10825.0</v>
@@ -19500,10 +21388,20 @@
       <c r="AF191" t="n" s="8">
         <v>10169.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>10166.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>10405.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>10566.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>11218.0</v>
@@ -19598,10 +21496,20 @@
       <c r="AF192" t="n" s="8">
         <v>10520.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>10427.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>10614.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>10762.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>2.9</v>
@@ -19696,10 +21604,20 @@
       <c r="AF193" t="n" s="10">
         <v>2.7</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>47.0</v>
@@ -19794,10 +21712,20 @@
       <c r="AF194" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>1581.0</v>
@@ -19892,10 +21820,20 @@
       <c r="AF195" t="n" s="8">
         <v>1121.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>1120.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>1102.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>1126.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>1628.0</v>
@@ -19990,10 +21928,20 @@
       <c r="AF196" t="n" s="8">
         <v>1152.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>1151.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>1127.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>1149.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>4.0</v>
@@ -20088,10 +22036,20 @@
       <c r="AF197" t="n" s="10">
         <v>3.5</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>160.0</v>
@@ -20186,10 +22144,20 @@
       <c r="AF198" t="n" s="8">
         <v>155.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>3862.0</v>
@@ -20284,10 +22252,20 @@
       <c r="AF199" t="n" s="8">
         <v>4305.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>4348.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>4384.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>4487.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>4022.0</v>
@@ -20382,10 +22360,20 @@
       <c r="AF200" t="n" s="8">
         <v>4460.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>4460.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>4470.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>4564.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>4.6</v>
@@ -20480,10 +22468,20 @@
       <c r="AF201" t="n" s="10">
         <v>4.3</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>292.0</v>
@@ -20578,10 +22576,20 @@
       <c r="AF202" t="n" s="8">
         <v>224.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>198.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>158.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>152.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>6074.0</v>
@@ -20676,10 +22684,20 @@
       <c r="AF203" t="n" s="8">
         <v>4933.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>5094.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>5076.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>5047.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>6366.0</v>
@@ -20774,10 +22792,20 @@
       <c r="AF204" t="n" s="8">
         <v>5157.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>5292.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>5234.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>5199.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>4.5</v>
@@ -20872,10 +22900,20 @@
       <c r="AF205" t="n" s="10">
         <v>5.8</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>1182.0</v>
@@ -20970,10 +23008,20 @@
       <c r="AF206" t="n" s="8">
         <v>1848.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>1121.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>700.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>673.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>25139.0</v>
@@ -21068,10 +23116,20 @@
       <c r="AF207" t="n" s="8">
         <v>30118.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>30876.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>31369.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>31534.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>26321.0</v>
@@ -21166,10 +23224,20 @@
       <c r="AF208" t="n" s="8">
         <v>31966.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>31997.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>32069.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>32207.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>6.0</v>
@@ -21264,10 +23332,20 @@
       <c r="AF209" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>151.0</v>
@@ -21362,10 +23440,20 @@
       <c r="AF210" t="n" s="8">
         <v>79.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>2376.0</v>
@@ -21460,10 +23548,20 @@
       <c r="AF211" t="n" s="8">
         <v>1828.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>1844.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>1841.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>1864.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>2527.0</v>
@@ -21558,10 +23656,20 @@
       <c r="AF212" t="n" s="8">
         <v>1907.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>1909.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>1898.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>1917.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>3.5</v>
@@ -21656,10 +23764,20 @@
       <c r="AF213" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>2.2</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>345.0</v>
@@ -21754,10 +23872,20 @@
       <c r="AF214" t="n" s="8">
         <v>2167.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>1112.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>473.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>376.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>9483.0</v>
@@ -21852,10 +23980,20 @@
       <c r="AF215" t="n" s="8">
         <v>20955.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>19725.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>21308.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>22471.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>9828.0</v>
@@ -21950,6 +24088,16 @@
       <c r="AF216" t="n" s="8">
         <v>23122.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>20837.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>21781.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>22847.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -21960,7 +24108,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (02:17:24 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:57:54 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
